--- a/docs/GanttChart.xlsx
+++ b/docs/GanttChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GPOI\Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GPOI\tournament creator\Tournament-Creator\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -274,7 +274,7 @@
                   <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43164</c:v>
+                  <c:v>43166</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43171</c:v>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43164</v>
+        <v>43166</v>
       </c>
       <c r="C7">
         <v>5</v>
